--- a/Data/GEF Sampling/Sampling Dec 2017/GEF_Litter_2018.03.08_Mdoda.xlsx
+++ b/Data/GEF Sampling/Sampling Dec 2017/GEF_Litter_2018.03.08_Mdoda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Projects\GEF Baviaanskoof_2017\Data\GEF Baseline data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\Projects\PhD GeoInformatics\Data\GEF Sampling\Sampling Dec 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1133,9 @@
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="M3" s="46">
+        <v>77.11</v>
+      </c>
       <c r="N3" s="46">
         <v>77.11</v>
       </c>
@@ -1153,7 +1155,9 @@
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="M4" s="46">
+        <v>128.43</v>
+      </c>
       <c r="N4" s="46">
         <v>128.43</v>
       </c>
